--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/114.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/114.xlsx
@@ -479,13 +479,13 @@
         <v>-13.46255010039493</v>
       </c>
       <c r="E2" t="n">
-        <v>-13.72897115045546</v>
+        <v>-13.74919875834592</v>
       </c>
       <c r="F2" t="n">
-        <v>4.020669673460667</v>
+        <v>4.048896678387428</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.546936130631424</v>
+        <v>-9.57852785738851</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.79951053168857</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.31625257902676</v>
+        <v>-14.33560300262683</v>
       </c>
       <c r="F3" t="n">
-        <v>4.236064239812745</v>
+        <v>4.263610444991736</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.215425930376078</v>
+        <v>-9.246873641801905</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.09673377733853</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.934890072904</v>
+        <v>-14.95684586476958</v>
       </c>
       <c r="F4" t="n">
-        <v>4.289873604492239</v>
+        <v>4.32098091604418</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.180181451126153</v>
+        <v>-9.211380408797986</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-14.30367944820267</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.54525323138527</v>
+        <v>-15.56720902325085</v>
       </c>
       <c r="F5" t="n">
-        <v>4.286521974964757</v>
+        <v>4.31302079591641</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.838786562225303</v>
+        <v>-8.868021674470878</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-14.43212621475523</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.21815832054147</v>
+        <v>-16.23356796098618</v>
       </c>
       <c r="F6" t="n">
-        <v>4.271780041964973</v>
+        <v>4.299169139509864</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.434208219810284</v>
+        <v>-8.464346700951937</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-14.48345863108995</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.75377752209932</v>
+        <v>-16.77534054487965</v>
       </c>
       <c r="F7" t="n">
-        <v>4.502335495007769</v>
+        <v>4.530457761511797</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.400914493683775</v>
+        <v>-8.432309835898234</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-14.45576165581402</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.74201072519849</v>
+        <v>-17.76397960936691</v>
       </c>
       <c r="F8" t="n">
-        <v>4.652870793081935</v>
+        <v>4.684239950690711</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.60634263421942</v>
+        <v>-7.627761641668483</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-14.3519861209969</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.36972118494505</v>
+        <v>-18.39306476091184</v>
       </c>
       <c r="F9" t="n">
-        <v>4.638731106012871</v>
+        <v>4.662166328099561</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.198451939185444</v>
+        <v>-7.219556731366307</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-14.17009307063225</v>
       </c>
       <c r="E10" t="n">
-        <v>-19.11221186370501</v>
+        <v>-19.13352613273134</v>
       </c>
       <c r="F10" t="n">
-        <v>4.777535700740851</v>
+        <v>4.802044491660562</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.379659319463896</v>
+        <v>-6.388391885459327</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-13.90741409760325</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.99524841347091</v>
+        <v>-20.00896914684904</v>
       </c>
       <c r="F11" t="n">
-        <v>4.953260589482499</v>
+        <v>4.980309287153505</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.116137447865634</v>
+        <v>-6.133249087679769</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-13.57123398980975</v>
       </c>
       <c r="E12" t="n">
-        <v>-20.9308374668435</v>
+        <v>-20.95168041296753</v>
       </c>
       <c r="F12" t="n">
-        <v>5.313796425137951</v>
+        <v>5.334508448233561</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.50915210351753</v>
+        <v>-5.521210114434759</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-13.15634810222684</v>
       </c>
       <c r="E13" t="n">
-        <v>-21.59654178943675</v>
+        <v>-21.62004247303764</v>
       </c>
       <c r="F13" t="n">
-        <v>5.446709483587154</v>
+        <v>5.467709537345282</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.075325556554095</v>
+        <v>-5.09008058185672</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-12.6773892867843</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.4105033494097</v>
+        <v>-22.43117609559678</v>
       </c>
       <c r="F14" t="n">
-        <v>5.72853439455815</v>
+        <v>5.753959646676782</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.151545760344745</v>
+        <v>-4.159230942112838</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-12.13923526281671</v>
       </c>
       <c r="E15" t="n">
-        <v>-23.39902458317138</v>
+        <v>-23.42444983529001</v>
       </c>
       <c r="F15" t="n">
-        <v>5.933428934031162</v>
+        <v>5.959875385771449</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.728546547831417</v>
+        <v>-3.73259206940951</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-11.54926585363097</v>
       </c>
       <c r="E16" t="n">
-        <v>-24.06826382753189</v>
+        <v>-24.09083495763103</v>
       </c>
       <c r="F16" t="n">
-        <v>6.228791286140503</v>
+        <v>6.253116784820429</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.500478632328549</v>
+        <v>-3.507600845074448</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-10.92338406457697</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.95173242329157</v>
+        <v>-24.97158035439962</v>
       </c>
       <c r="F17" t="n">
-        <v>6.582807154980775</v>
+        <v>6.606399484701566</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.386418489971432</v>
+        <v>-3.391930349467799</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-10.26762674038969</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.69448494810837</v>
+        <v>-25.7127879874811</v>
       </c>
       <c r="F18" t="n">
-        <v>6.445730744227903</v>
+        <v>6.476366732877542</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.000601417528606</v>
+        <v>-3.009517275763822</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-9.604999215337818</v>
       </c>
       <c r="E19" t="n">
-        <v>-26.33244668098</v>
+        <v>-26.35154835082608</v>
       </c>
       <c r="F19" t="n">
-        <v>6.56767245289574</v>
+        <v>6.597549087980559</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.628020663258766</v>
+        <v>-2.627667171082039</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-8.950543656453783</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.8447353988739</v>
+        <v>-26.86144117729994</v>
       </c>
       <c r="F20" t="n">
-        <v>6.785711664421846</v>
+        <v>6.813598269474722</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.378062417404532</v>
+        <v>-2.380693970275718</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-8.312893324101379</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.20315028146899</v>
+        <v>-27.21884795257622</v>
       </c>
       <c r="F21" t="n">
-        <v>6.742454695832783</v>
+        <v>6.773195422905156</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.182162289983784</v>
+        <v>-2.17826078373695</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-7.706946042997489</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.70630057197937</v>
+        <v>-27.72747082567444</v>
       </c>
       <c r="F22" t="n">
-        <v>6.772750284608537</v>
+        <v>6.809382547959687</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.207194773017165</v>
+        <v>-2.203528928221481</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-7.12811113043662</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.9296814430649</v>
+        <v>-27.94951628187011</v>
       </c>
       <c r="F23" t="n">
-        <v>6.808832671240334</v>
+        <v>6.83884022935357</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.268754780978961</v>
+        <v>-2.26943558072673</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-6.579081890186814</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.34538824289538</v>
+        <v>-28.36380911299369</v>
       </c>
       <c r="F24" t="n">
-        <v>7.010846904088167</v>
+        <v>7.044179907123202</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.581032388359811</v>
+        <v>-2.58223688022125</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.05778852572507</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.24414546502031</v>
+        <v>-28.26438616521362</v>
       </c>
       <c r="F25" t="n">
-        <v>6.987935374115146</v>
+        <v>7.01815240907385</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.470611906192693</v>
+        <v>-2.472837597675787</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.553415496978387</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.72444968707188</v>
+        <v>-28.74082815792688</v>
       </c>
       <c r="F26" t="n">
-        <v>6.993224664463204</v>
+        <v>7.026583852103922</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.55182346071992</v>
+        <v>-2.556536689742941</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.072718114724595</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.58539633858991</v>
+        <v>-28.60257343991825</v>
       </c>
       <c r="F27" t="n">
-        <v>7.16635727724219</v>
+        <v>7.2017850487319</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.635718937329701</v>
+        <v>-2.63806245953837</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.611130795959679</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.82944995586252</v>
+        <v>-28.84733404154432</v>
       </c>
       <c r="F28" t="n">
-        <v>6.976361778403061</v>
+        <v>7.011396780807519</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.805709397426672</v>
+        <v>-2.802685075470233</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.172307750560957</v>
       </c>
       <c r="E29" t="n">
-        <v>-29.15780491113301</v>
+        <v>-29.18057242577477</v>
       </c>
       <c r="F29" t="n">
-        <v>7.024279606803778</v>
+        <v>7.064918114824496</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.902749546089546</v>
+        <v>-2.906035714102819</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.763722608224207</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.86122497485939</v>
+        <v>-28.88032664470547</v>
       </c>
       <c r="F30" t="n">
-        <v>6.868140803113353</v>
+        <v>6.907339157821481</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.896164117760157</v>
+        <v>-2.895051272018611</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.386626288120667</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.77929334367587</v>
+        <v>-28.79784513680259</v>
       </c>
       <c r="F31" t="n">
-        <v>6.816976083607887</v>
+        <v>6.855703115413713</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.813473133011815</v>
+        <v>-2.808354042600701</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.054719676292323</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.65928929582861</v>
+        <v>-28.67615218188875</v>
       </c>
       <c r="F32" t="n">
-        <v>6.918650907476732</v>
+        <v>6.954157232783493</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.318456345920032</v>
+        <v>-3.316125916014204</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.777749483447017</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.55277031990832</v>
+        <v>-28.57073295940717</v>
       </c>
       <c r="F33" t="n">
-        <v>7.130170152187659</v>
+        <v>7.171620382984563</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.624855509324947</v>
+        <v>-3.621124203015055</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.564249609543892</v>
       </c>
       <c r="E34" t="n">
-        <v>-28.15393949844082</v>
+        <v>-28.17258293768744</v>
       </c>
       <c r="F34" t="n">
-        <v>7.103147639122336</v>
+        <v>7.142974424366867</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.825796173339759</v>
+        <v>-3.823963250941917</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.425243621545301</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.04252400125773</v>
+        <v>-28.06175659413223</v>
       </c>
       <c r="F35" t="n">
-        <v>7.054182426494281</v>
+        <v>7.091128905113631</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.075544942348525</v>
+        <v>-4.076775618815647</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.363722492778922</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.73764354498246</v>
+        <v>-27.75598586126372</v>
       </c>
       <c r="F36" t="n">
-        <v>7.225691593720892</v>
+        <v>7.261014626787869</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.282468788762006</v>
+        <v>-4.283345973052401</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.379733760460876</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.29268854060356</v>
+        <v>-27.31376714817873</v>
       </c>
       <c r="F37" t="n">
-        <v>6.942976406156659</v>
+        <v>6.976833101305362</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.680291502910694</v>
+        <v>-4.68034387212206</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.472103339701642</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.09534825987022</v>
+        <v>-27.11551040624648</v>
       </c>
       <c r="F38" t="n">
-        <v>7.312729223012687</v>
+        <v>7.347738040811462</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.695544035721305</v>
+        <v>-4.695046528213319</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.630954911665451</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.77935243848232</v>
+        <v>-26.79624150914815</v>
       </c>
       <c r="F39" t="n">
-        <v>7.221004549303554</v>
+        <v>7.251876199404344</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.861200943577665</v>
+        <v>-4.861816281811226</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.846846162193134</v>
       </c>
       <c r="E40" t="n">
-        <v>-26.40635273052154</v>
+        <v>-26.42696001519442</v>
       </c>
       <c r="F40" t="n">
-        <v>7.32974921670693</v>
+        <v>7.359442559551965</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.937450515327877</v>
+        <v>-4.938982314760359</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.108307940371945</v>
       </c>
       <c r="E41" t="n">
-        <v>-26.10773039500461</v>
+        <v>-26.13180713993055</v>
       </c>
       <c r="F41" t="n">
-        <v>7.438886653195559</v>
+        <v>7.467323134967788</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.310738253951171</v>
+        <v>-5.312400976412071</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.399351809645957</v>
       </c>
       <c r="E42" t="n">
-        <v>-25.41021177650597</v>
+        <v>-25.42962766162025</v>
       </c>
       <c r="F42" t="n">
-        <v>7.406339188331028</v>
+        <v>7.43540410063966</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.386372487467822</v>
+        <v>-5.388689825070808</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.708066906386429</v>
       </c>
       <c r="E43" t="n">
-        <v>-24.92049418871121</v>
+        <v>-24.93852228972426</v>
       </c>
       <c r="F43" t="n">
-        <v>7.342265458223621</v>
+        <v>7.375807938104123</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.418605737064152</v>
+        <v>-5.41935199832613</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.020591884034665</v>
       </c>
       <c r="E44" t="n">
-        <v>-24.62593046707521</v>
+        <v>-24.6459747827259</v>
       </c>
       <c r="F44" t="n">
-        <v>7.559414393156489</v>
+        <v>7.58816509019692</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.462674428429402</v>
+        <v>-5.462307843949834</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.323519123491172</v>
       </c>
       <c r="E45" t="n">
-        <v>-24.08710365132114</v>
+        <v>-24.10633624419563</v>
       </c>
       <c r="F45" t="n">
-        <v>7.488611219388435</v>
+        <v>7.517021516554981</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.508301103832817</v>
+        <v>-5.511901487114292</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.612002242076971</v>
       </c>
       <c r="E46" t="n">
-        <v>-23.70353845496709</v>
+        <v>-23.72423738575986</v>
       </c>
       <c r="F46" t="n">
-        <v>7.378583506306569</v>
+        <v>7.40825066454592</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.421459859083648</v>
+        <v>-5.421381305266598</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.879164915617085</v>
       </c>
       <c r="E47" t="n">
-        <v>-23.22902103077157</v>
+        <v>-23.25116011487693</v>
       </c>
       <c r="F47" t="n">
-        <v>7.557869501421166</v>
+        <v>7.588034167168503</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.552697102769111</v>
+        <v>-5.553338625608355</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.123747332146691</v>
       </c>
       <c r="E48" t="n">
-        <v>-22.49874547056293</v>
+        <v>-22.51796497113459</v>
       </c>
       <c r="F48" t="n">
-        <v>7.56025230053836</v>
+        <v>7.593716226601812</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.817554389257229</v>
+        <v>-5.815773836070754</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.348643610352808</v>
       </c>
       <c r="E49" t="n">
-        <v>-22.19335441447683</v>
+        <v>-22.21379149921276</v>
       </c>
       <c r="F49" t="n">
-        <v>7.618722525029509</v>
+        <v>7.652395927938428</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.691318405257306</v>
+        <v>-5.680059024813422</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.553349598767277</v>
       </c>
       <c r="E50" t="n">
-        <v>-21.71242176188886</v>
+        <v>-21.73236133911681</v>
       </c>
       <c r="F50" t="n">
-        <v>7.535900617252749</v>
+        <v>7.571118911896993</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.72957411416083</v>
+        <v>-5.722556639837665</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.74922104914828</v>
       </c>
       <c r="E51" t="n">
-        <v>-21.16173331976018</v>
+        <v>-21.18113611257162</v>
       </c>
       <c r="F51" t="n">
-        <v>7.623357200235479</v>
+        <v>7.654543065604471</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.849224669831364</v>
+        <v>-5.841827518725789</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.940898282735932</v>
       </c>
       <c r="E52" t="n">
-        <v>-20.82151673811509</v>
+        <v>-20.84090643862368</v>
       </c>
       <c r="F52" t="n">
-        <v>7.370387724727649</v>
+        <v>7.397960114512323</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.97275054714305</v>
+        <v>-5.967644549034777</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.133602996287491</v>
       </c>
       <c r="E53" t="n">
-        <v>-20.09604605304936</v>
+        <v>-20.11365520037148</v>
       </c>
       <c r="F53" t="n">
-        <v>7.529825788734189</v>
+        <v>7.559152547099655</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.02023632954999</v>
+        <v>-6.014148408728587</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.334825655939625</v>
       </c>
       <c r="E54" t="n">
-        <v>-19.18219022239404</v>
+        <v>-19.2010038615776</v>
       </c>
       <c r="F54" t="n">
-        <v>7.436634777106782</v>
+        <v>7.469967780141817</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.066098666404557</v>
+        <v>-6.055336793468657</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.542968743589956</v>
       </c>
       <c r="E55" t="n">
-        <v>-18.79406890465107</v>
+        <v>-18.81234575941812</v>
       </c>
       <c r="F55" t="n">
-        <v>7.406208265302611</v>
+        <v>7.435796869724911</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.500684566932811</v>
+        <v>-6.491965093240222</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.762804981642473</v>
       </c>
       <c r="E56" t="n">
-        <v>-18.6604750464541</v>
+        <v>-18.68235228450262</v>
       </c>
       <c r="F56" t="n">
-        <v>7.148656483800176</v>
+        <v>7.176778750304203</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.413188707041556</v>
+        <v>-6.396692405460981</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.991859296236457</v>
       </c>
       <c r="E57" t="n">
-        <v>-18.35838325068411</v>
+        <v>-18.38129478065713</v>
       </c>
       <c r="F57" t="n">
-        <v>7.161120356105499</v>
+        <v>7.188718930495858</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.316083096864474</v>
+        <v>-6.302506378817604</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.226696307506673</v>
       </c>
       <c r="E58" t="n">
-        <v>-17.78894663088608</v>
+        <v>-17.80730203947018</v>
       </c>
       <c r="F58" t="n">
-        <v>6.921662137130329</v>
+        <v>6.94609237423299</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.480090374562776</v>
+        <v>-6.471816039166805</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.467605718055743</v>
       </c>
       <c r="E59" t="n">
-        <v>-17.26148393399862</v>
+        <v>-17.28641167860927</v>
       </c>
       <c r="F59" t="n">
-        <v>6.969030088811694</v>
+        <v>6.998671062445362</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.588350626761009</v>
+        <v>-6.579958460639463</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.707109894608013</v>
       </c>
       <c r="E60" t="n">
-        <v>-17.00352629110809</v>
+        <v>-17.02508931388841</v>
       </c>
       <c r="F60" t="n">
-        <v>7.101838408838163</v>
+        <v>7.135066673450464</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.938753020016966</v>
+        <v>-6.935165729038333</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.942521162770829</v>
       </c>
       <c r="E61" t="n">
-        <v>-16.63204529027695</v>
+        <v>-16.65947366473037</v>
       </c>
       <c r="F61" t="n">
-        <v>6.902337898135942</v>
+        <v>6.930093580160401</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.756324872220355</v>
+        <v>-6.746558014300427</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.167251171107068</v>
       </c>
       <c r="E62" t="n">
-        <v>-16.23940712805359</v>
+        <v>-16.26387664206478</v>
       </c>
       <c r="F62" t="n">
-        <v>6.900688267977884</v>
+        <v>6.92933422659558</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.754884718907765</v>
+        <v>-6.742499400419492</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.370104608642583</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.74411221924825</v>
+        <v>-15.76309605836875</v>
       </c>
       <c r="F63" t="n">
-        <v>6.803281534835442</v>
+        <v>6.831665647396304</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.755670257078268</v>
+        <v>-6.746178337518017</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.545100866810063</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.53006616008887</v>
+        <v>-15.55321335151304</v>
       </c>
       <c r="F64" t="n">
-        <v>6.612264836374659</v>
+        <v>6.641722517768542</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.503551781255149</v>
+        <v>-6.496691414566085</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.678729262479891</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.29333114010478</v>
+        <v>-15.31468468603964</v>
       </c>
       <c r="F65" t="n">
-        <v>6.580790940343149</v>
+        <v>6.606896992209551</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.595878700895002</v>
+        <v>-6.586020196855182</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.763788143287655</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.90425408425437</v>
+        <v>-14.92517558419544</v>
       </c>
       <c r="F66" t="n">
-        <v>6.583016631826243</v>
+        <v>6.610222437131349</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.675479902172697</v>
+        <v>-6.667100828353991</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.793105233998737</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.79685792404369</v>
+        <v>-14.8170069781171</v>
       </c>
       <c r="F67" t="n">
-        <v>6.536250926075597</v>
+        <v>6.563692392831855</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.634448625066727</v>
+        <v>-6.625349474591728</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.760754895415872</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.43374290472841</v>
+        <v>-14.45110329829654</v>
       </c>
       <c r="F68" t="n">
-        <v>6.251022016365753</v>
+        <v>6.277913606402659</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.487958848570654</v>
+        <v>-6.479016805729755</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.668801415623378</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.5972133980102</v>
+        <v>-14.61552952968578</v>
       </c>
       <c r="F69" t="n">
-        <v>6.232300023302085</v>
+        <v>6.259453459395824</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.396705497763823</v>
+        <v>-6.385865071010874</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.513719898372027</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.45635331173607</v>
+        <v>-14.47552044309636</v>
       </c>
       <c r="F70" t="n">
-        <v>6.178569212439641</v>
+        <v>6.206534371309568</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.483572927118676</v>
+        <v>-6.475128391785763</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.30221933240747</v>
       </c>
       <c r="E71" t="n">
-        <v>-14.43354652018579</v>
+        <v>-14.45302786681428</v>
       </c>
       <c r="F71" t="n">
-        <v>6.263512073276759</v>
+        <v>6.29522163075942</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.325967785509977</v>
+        <v>-6.318334972953251</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.038184566911847</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.38547158415097</v>
+        <v>-14.40729645298813</v>
       </c>
       <c r="F72" t="n">
-        <v>5.887553504873754</v>
+        <v>5.917273032324472</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.415060906347923</v>
+        <v>-6.411329600038031</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.726979042299818</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.61869786697348</v>
+        <v>-14.63840178275028</v>
       </c>
       <c r="F73" t="n">
-        <v>5.853722994330734</v>
+        <v>5.881871445440445</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.122526491652396</v>
+        <v>-6.119829477267</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.379439569424305</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.76204549078754</v>
+        <v>-14.7831502829684</v>
       </c>
       <c r="F74" t="n">
-        <v>5.782946005168363</v>
+        <v>5.8096281183598</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.891303331164671</v>
+        <v>-5.890046470091866</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.000333407478908</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.02425813210163</v>
+        <v>-15.04555930882511</v>
       </c>
       <c r="F75" t="n">
-        <v>5.513637335714058</v>
+        <v>5.539638649157725</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.696031634280327</v>
+        <v>-5.694656942481946</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.603632278794918</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.14076653509015</v>
+        <v>-15.1586375284691</v>
       </c>
       <c r="F76" t="n">
-        <v>5.527960315022906</v>
+        <v>5.554799535848444</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.449713048616093</v>
+        <v>-5.444266650633935</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.200100405175331</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.35294039494316</v>
+        <v>-15.36944978882658</v>
       </c>
       <c r="F77" t="n">
-        <v>5.465981353370174</v>
+        <v>5.493370450915066</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.434408146594115</v>
+        <v>-5.428817733280698</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.798192014593836</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.7520985239817</v>
+        <v>-15.7707026863198</v>
       </c>
       <c r="F78" t="n">
-        <v>5.291225295038815</v>
+        <v>5.310916118512771</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.965376397289279</v>
+        <v>-4.958529122903056</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.411620650282615</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.00597136838561</v>
+        <v>-16.02111916277349</v>
       </c>
       <c r="F79" t="n">
-        <v>4.886777875652213</v>
+        <v>4.90586645319545</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.062874776551613</v>
+        <v>-5.057362917055246</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.044119027480534</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.59708884168954</v>
+        <v>-16.61837692611019</v>
       </c>
       <c r="F80" t="n">
-        <v>5.073369375752494</v>
+        <v>5.092641245535514</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.973559086565357</v>
+        <v>-4.962928136657876</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.703173205860347</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.20717706181114</v>
+        <v>-17.22320204048941</v>
       </c>
       <c r="F81" t="n">
-        <v>4.753681524963226</v>
+        <v>4.76850201178006</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.923782151161115</v>
+        <v>-4.915678015702087</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.39333442773571</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.88135210434298</v>
+        <v>-17.89750800604967</v>
       </c>
       <c r="F82" t="n">
-        <v>4.891883873760486</v>
+        <v>4.921472478182787</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.80883173221076</v>
+        <v>-4.801277473471084</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.111305305120832</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.66678553642381</v>
+        <v>-18.6859526677841</v>
       </c>
       <c r="F83" t="n">
-        <v>4.743652820986464</v>
+        <v>4.765516966732147</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.726140747462418</v>
+        <v>-4.718390104180116</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.861097007566191</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.5565646221532</v>
+        <v>-19.57592813805611</v>
       </c>
       <c r="F84" t="n">
-        <v>4.805815074878979</v>
+        <v>4.82660565179164</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.572908435002857</v>
+        <v>-4.569347328629907</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.638265902914637</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.62116522772815</v>
+        <v>-20.63756988318884</v>
       </c>
       <c r="F85" t="n">
-        <v>4.545094956088846</v>
+        <v>4.561250857795536</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.310630332174559</v>
+        <v>-4.306584810596465</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.440749310727389</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.7542909463767</v>
+        <v>-21.77323550858868</v>
       </c>
       <c r="F86" t="n">
-        <v>4.464498739795181</v>
+        <v>4.484687070777122</v>
       </c>
       <c r="G86" t="n">
-        <v>-4.065228207709245</v>
+        <v>-4.065476961463237</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.269168537397296</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.91378456294849</v>
+        <v>-22.93502027815777</v>
       </c>
       <c r="F87" t="n">
-        <v>4.36580896097425</v>
+        <v>4.386180584195976</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.988795343719248</v>
+        <v>-3.989240482015867</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.119964662354537</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.2010852398612</v>
+        <v>-24.2214175861744</v>
       </c>
       <c r="F88" t="n">
-        <v>4.171047863900733</v>
+        <v>4.192047917658861</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.119901664376293</v>
+        <v>-4.122637955670213</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.997052244960882</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.94082971837829</v>
+        <v>-25.9601932342812</v>
       </c>
       <c r="F89" t="n">
-        <v>4.194928224284041</v>
+        <v>4.216321047127422</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.144423547598846</v>
+        <v>-4.15044600690604</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.903810723429799</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.53337743604585</v>
+        <v>-27.55822662683945</v>
       </c>
       <c r="F90" t="n">
-        <v>3.906897561766067</v>
+        <v>3.927164446565059</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.224901933166936</v>
+        <v>-4.228436854934202</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.842542765647294</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.10194005490737</v>
+        <v>-29.12688089182085</v>
       </c>
       <c r="F91" t="n">
-        <v>3.564245811792413</v>
+        <v>3.582077528262844</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.184839486471255</v>
+        <v>-4.187261562496974</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.81944646306725</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.75806399517435</v>
+        <v>-30.77961392565183</v>
       </c>
       <c r="F92" t="n">
-        <v>3.23366516503883</v>
+        <v>3.250344758859188</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.376419153954232</v>
+        <v>-4.380438490926641</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.83867440686771</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.86062237004134</v>
+        <v>-32.88477766878433</v>
       </c>
       <c r="F93" t="n">
-        <v>3.053646000965096</v>
+        <v>3.072289440211714</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.747114616614864</v>
+        <v>-4.753830967972669</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.902772011690984</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.91691254666569</v>
+        <v>-34.94071435323194</v>
       </c>
       <c r="F94" t="n">
-        <v>2.936888844222583</v>
+        <v>2.953673176465676</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.96053224523784</v>
+        <v>-4.969644488015682</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.016107109562914</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.96398574208944</v>
+        <v>-36.98506434966463</v>
       </c>
       <c r="F95" t="n">
-        <v>2.56823578080526</v>
+        <v>2.585151036076771</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.235824097090815</v>
+        <v>-5.247489338922792</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.180366582679242</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.45995472504747</v>
+        <v>-39.4823687475125</v>
       </c>
       <c r="F96" t="n">
-        <v>2.235167596511749</v>
+        <v>2.254884604591389</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.576629832363786</v>
+        <v>-5.58963048908562</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.389925369611841</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.62047272459479</v>
+        <v>-41.64690608403223</v>
       </c>
       <c r="F97" t="n">
-        <v>1.995133316211543</v>
+        <v>2.013881493880895</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.104144898462613</v>
+        <v>-6.115679217266173</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.650494128129813</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.97300243761886</v>
+        <v>-43.9991215817881</v>
       </c>
       <c r="F98" t="n">
-        <v>1.412787685811568</v>
+        <v>1.428367526193222</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.333220921284293</v>
+        <v>-6.348931684694365</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.939725172633914</v>
       </c>
       <c r="E99" t="n">
-        <v>-46.1758216676478</v>
+        <v>-46.20156113503463</v>
       </c>
       <c r="F99" t="n">
-        <v>1.167974714974132</v>
+        <v>1.182742832579599</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.511577362897127</v>
+        <v>-6.520218282772666</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.271086574090377</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.49865803782684</v>
+        <v>-48.52894053429975</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9860571669883484</v>
+        <v>0.9966488399873049</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.744659630388377</v>
+        <v>-6.759270640359743</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.596238595071419</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.63424829276351</v>
+        <v>-50.66404637403128</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7811495352124938</v>
+        <v>0.7916102851830329</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.906192462849593</v>
+        <v>-6.92535959420988</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.957507046647001</v>
       </c>
       <c r="E102" t="n">
-        <v>-53.2259351017974</v>
+        <v>-53.2503784312029</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3339164701391313</v>
+        <v>0.3369146074898866</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.249394089542601</v>
+        <v>-7.267238898315873</v>
       </c>
     </row>
   </sheetData>
